--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afnan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B0F9EE-CDFC-4E50-A203-C9A18DD52240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2EFB3D-CE78-471E-8BF1-0095F5810D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E3F3C5F-3AE4-4AFB-B1B0-14951CA6A7DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0E3F3C5F-3AE4-4AFB-B1B0-14951CA6A7DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>Table of VALUE_STRATEGY and VALUE_STRATEGY_ARGS Options</t>
   </si>
@@ -301,6 +302,60 @@
       </rPr>
       <t xml:space="preserve"> to generate an integer between 0 and 10.</t>
     </r>
+  </si>
+  <si>
+    <t>{min, max}</t>
+  </si>
+  <si>
+    <t>Generates a random integer between the optional min and max values. Default is between 0 and 100.</t>
+  </si>
+  <si>
+    <t>Generates a random double between the optional min and max values. Default is between 0 and 1.</t>
+  </si>
+  <si>
+    <t>{p_true}</t>
+  </si>
+  <si>
+    <t>Generates a boolean value (true or false). Default probability for true is 0.5.</t>
+  </si>
+  <si>
+    <t>Generates a random LocalDateTime value between the optional min and max date-times.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Generates a valid credit card number from VISA, MasterCard, Amex, or Discover.</t>
+  </si>
+  <si>
+    <t>Generates a random email using the faker library.</t>
+  </si>
+  <si>
+    <t>Generates a random full name using the faker library.</t>
+  </si>
+  <si>
+    <t>{min_words, max_words}</t>
+  </si>
+  <si>
+    <t>Generates a lorem ipsum sentence with an optional word count range. Default is between 3 and 10 words.</t>
+  </si>
+  <si>
+    <t>StatisticalDistributionCatalog</t>
+  </si>
+  <si>
+    <t>{mu, sigma}</t>
+  </si>
+  <si>
+    <t>Generates a normally distributed double with a given mean (mu) and standard deviation (sigma).</t>
+  </si>
+  <si>
+    <t>Generates a log-normally distributed double with a given mean (mu) and standard deviation (sigma). Default is mu=0.0, sigma=1.0.</t>
+  </si>
+  <si>
+    <t>{lambda}</t>
+  </si>
+  <si>
+    <t>Generates an exponentially distributed double with a rate parameter (lambda). Default is lambda=1.0.</t>
   </si>
 </sst>
 </file>
@@ -701,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB5E66-C7E3-4DE3-9913-F6703A1937D5}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -925,4 +980,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714ADCA1-E9B4-47D1-96E5-919B6EC92B3B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="225">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="210">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="165">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="180">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="225">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="210">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="285">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="240">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>